--- a/validation.xlsx
+++ b/validation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tib.tibub.de\DFS0\Home\harism\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadharis/parse-software-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F58D657-B8EA-414F-BEA3-BDAABF795F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data - Copy" sheetId="1" r:id="rId1"/>
@@ -48,102 +49,24 @@
     <t>10.5281/zenodo.4975033</t>
   </si>
   <si>
-    <t>{'input_files': ['tissue_positions_list.csv', 'spatial_folder', 'tissue_positions_list.csv', ''], 'operations': ['pd.merge', 'adata_spatial.obs', 'coord.max', 'np.full', 'np.column_stack', 'np.abs', 'ax.scatter', 'sc.pp', 'list', 'adata.uns', 'colors_for_set', 'adata.obsm', 'list', 'colors_set.values', 'plt.subplots', 'tqdm', 'zip', 'plot_one_dot', 'ax.imshow', 'ax.set_xticks', 'ax.set_yticks', 'ax.legend', 'list', 'list', 'mpatches.Patch', 'colors_set.keys', 'colors_set.keys', 'plt.savefig', 'os.path', 'os.path', 'plt.close', 'sq.gr', 'round', 'nx.from_scipy_sparse_matrix', 'nx.from_numpy_matrix', 'key', 'pd.Series', 'np.arange', 'np.arange', 'len', 'pd.Series', 'nx.set_node_attributes', 'nx.attribute_mixing_matrix', 'cluster2order.items', 'x.tolist', 'key', 'key', 'key', 'x.tolist', 'key', 'key', 'key', 'cluster2index.items', 'G.subgraph', 'nx.number_connected_components', 'ad.AnnData', 'pd.DataFrame', 'pd.DataFrame', 'adata.copy', 'dict', 'G.degree', 'nx.clustering', 'nx.pagerank', 'values_dict.items', 'list', 'v.values', 'ad.AnnData', 'list', 'values_dict.keys', 'sq.im', 'zip', 'features_df_list.append', 'ad.AnnData', 'pd.concat', 'adata_decon.obs_names', 'add_umap', 'adata_spatial.obsp', 'np.where', 'range', 'np.zeros_like', 'len', 'valid_decon.append', 'np.array', 'ad.AnnData', 'pd.DataFrame', 'pd.DataFrame', 'pd.DataFrame', 'adata_neigh.obs_names', 'sc.tl', 'sc.pl', 'plt.savefig', 'plt.close', 'os.path', 'legend_loc.replace', 'plt.savefig', 'plt.close', 'os.path', 'adata_spatial.obs_names', 'pd.Series', 'list', 'adata_spatial.obs_names', 'G.nodes', 'nx.algorithms', 'enumerate', 'adata_spatial.obs_names', 'adata_spatial.obs', 'adata_spatial.obs', 'plt.savefig', 'os.path', 'adata_spatial.to_df', 'list', 'product', 'decon.columns', 'decon.columns', 'tqdm', 'enumerate', 'len', 'par', 'G.subgraph', 'G_sub.nodes', 'G_sub.edges', 'len', 'G_sub.edges', 'feature.append', 'data_list.append', 'pd.Series', 'pd.concat', 'pd.concat', 'pd.concat', 'pd.concat', 'AgglomerativeClustering', 'model.fit', 'pd.MultiIndex', 'pd.MultiIndex', 'list', 'model.labels_', 'pd.Series', 'plt.close', 'plt.close', 'logging.StreamHandler', 'logging.Formatter', 'mtx_to_adata', 'small_txt_to_adata', 'np.array', 'Image.open', 'os.path', 'load', 'np.array', 'Image.open', 'np.cos', 'np.linspace', 'method', 'key', 'o', 'np.arange'], 'output_files': ['spatial_program.txt', 'outdir', 'spatial_program.txt']}</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.7424708</t>
   </si>
   <si>
-    <t>{'input_files': ['Sample.csv', 'Reference.csv'], 'operations': ['reference.drop', 'test_data.drop', 'range', 'len', 'svr.fit', 'score_adj.append', 'sum', 'pd.DataFrame', 'score_adj.plot', 'plt.boxplot', 'plt.xticks', 'range', 'LinearSVR', 'np.where'], 'output_files': ['score.csv']}</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.5874955</t>
   </si>
   <si>
-    <t>{'input_files': ['../data/fmri_behavioural_new.csv', '../data/fmri_behavioural_new.csv', '../data/fmri_behavioural_new.csv', '../data/fmri_behavioural_new.csv'], 'operations': ['df.dropna', 'dfna.head', 'dfm1.groupby', 'dfm1.groupby', 'x.std', 'x.mean', 'dfm2.groupby', 'dfm2.groupby', 'x.std', 'x.mean', 'dfm11.groupby', 'dfm11.groupby', 'stats.pearsonr', 'dfm22.groupby', 'dfm22.groupby', 'stats.pearsonr', 'pd.DataFrame', 'dfm_sj.agg', 'stats.ttest_1samp', 'dff.dropna', 'i'], 'output_files': []}</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.6997897</t>
   </si>
   <si>
-    <t>{'input_files': ['84-Site_12-BP-Solar.csv'], 'operations': ['df.rename', 'pd.to_datetime', 'df.index', 'rdtools.interpolate', 'rdtools.energy_from_power', 'loc.get_solarposition', 'pvlib.irradiance', 'np.cos', 'np.deg2rad', 'pvlib.temperature', 'ax.plot', 'rdtools.normalize_with_pvwatts', 'rdtools.aggregation_insol', 'rdtools.degradation_year_on_year', 'rdtools.degradation_summary_plots', 'soiling_srr', 'rdtools.plotting', 'pd.date_range', 'df.index', 'df.index', 'loc.get_clearsky', 'cs_total.resample', 'rdtools.irradiance_rescale', 'rdtools.get_clearsky_tamb', 'rdtools.normalized_filter', 'rdtools.poa_filter', 'rdtools.tcell_filter', 'rdtools.csi_filter', 'print', 'col.decode', 'pvlib.location', 'plt.subplots'], 'output_files': []}</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.7942989</t>
   </si>
   <si>
-    <t>{'input_files': ['path_data', 'metadata_AllInchikeys.csv'], 'operations': ['os.path', 'metadata.head', 'np.load', 'np.arange', 'int', 'print', 'np.random', 'np.random', 'list', 'set', 'set', 'list', 'set', 'set', 'set', 'np.max', 'np.where', 'np.array', 'print', 'len', 'len', 'len', 'list', 'zip', 'np.arange', 'np.arange', 'DataGenerator_all_inchikeys', 'K.square', 'K.abs', 'K.square', 'K.mean', 'K.mean', 'K.mean', 'ModelCheckpoint', 'np.arange', 'len', 'tf.keras', 'scoring_network.compile', 'val_generator.__getitem__', 'scoring_network.predict', 'int', 'np.ceil', 'range', 'pairs_list.append', 'self.__data_generation', 'np.zeros', 'range', 'len', 'np.array', 'np.array', 'np.max', 'np.min', 'np.mean', 'np.ix_', 'create_histograms_plot', 'np.concatenate', 'np.array', 'np.histogram', 'range', 'len', 'plt.yticks', 'np.arange', 'len', 'tf.keras', 'Dense', 'tf.keras', 'Dense', 'Dropout', 'Model', 'Concatenate', 'Concatenate', 'Dense', 'Dense', 'scoring_network.summary', 'encoder.summary', 'scoring_network.fit_generator', 'ax1.plot', 'len', 'DataGeneratorAllvsAll', 'predict_generator.batch_size', 'np.roll', 'np.zeros', 'len', 'encoder.predict', 'get_embedding_array', 'cosine_similarity_matrix', 'np.linspace', 'histograms.append', 'LinearSegmentedColormap.from_list', 'plt.figure', 'plt.style', 'tanimoto_bins.append', 'max', 'plt.fill_between', 'plt.plot', 'plt.ylabel', 'datetime.now', 'datetime.now', 'EarlyStopping', 'encoder.layers', 'scoring_network.layers', 'Dense', 'num', 'self.on_epoch_end', 'enumerate', 'encoder.predict', 'A', 'encoder.predict', 'range', 'encoder.predict', 'A', 'scoring_network.predict', 'time.time', 'plt.xlabel', 'Dot', 'Dot', 'DataGeneratorAllInchikey', 'Dense', 'tf.keras', 'BatchNormalization', 'BatchNormalization', 'np.min', 'np.min', 'set_d_bins_fixed', 'unique_peaks_fixed', 'create_peak_list_fixed', 'create_peak_dict', 'tf.unstack', 'K.abs', 'Input', 'plt.subplots', 'tf.math', 'np.zeros'], 'output_files': []}</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.7785234</t>
   </si>
   <si>
     <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance', 'GradientBoostingClassifier'], 'output_files': []}</t>
   </si>
   <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y1_data_orig_test.copy', 'sc.fit', 'trained.transform', 'pca.fit', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance', 'pd.cut', 'StandardScaler', 'PCA', 'RandomForestClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.replace', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance', 'StandardScaler', 'DecisionTreeClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['/train.csv', 'test.csv'], 'operations': ['df.dropna', 'df.drop', 'df.copy', 'pd.cut', 'pd.get_dummies', 'train_test_split', 'load_titanic_data', 'y1_xgb.fit', 'plot_model_performance', 'pd.qcut', 'label.fit_transform', 'XGBClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['df.copy', 'df.drop', 'y1_df.drop', 'np.random', 'np.isnan', 'y1_df.Cabin', 'y1_df.Ticket', 'y1_df.dropna', 'pd.get_dummies', 'df.dropna', 'train_test_split', 'load_titanic_data', 'y1_xgb.fit', 'plot_model_performance', 'RandomForestClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', '/test.csv'], 'operations': ['df.Age', 'df.Age', 'df.Fare', 'df.Fare', 'name.split', 'name.split', 'name.split', 'title.Title', 'df.Cabin', 'pd.get_dummies', 'df.drop', 'train_test_split', 'load_titanic_data', 'rfecv.fit', 'trained_rfecv.transform', 'y1_model.fit', 'plot_model_performance', 'pd.DataFrame', 'RFECV', 'LogisticRegression'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['df.copy', 'pd.DataFrame', 'np.floor', 'np.log10', 'np.where', 'df.groupby', 'df.groupby', 'df.groupby', 'df.groupby', 'df.fillna', 'pd.get_dummies', 'df.drop', 'train_test_split', 'load_titanic_data', 'y1_xgb.fit', 'plot_model_performance', 'np.where', 'xgb.XGBClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', '/test.csv'], 'operations': ['df.copy', 'df.groupby', 'df.groupby', 'pd.notnull', 'pd.cut', 'df.Cabin', 'df.drop', 'train_test_split', 'load_titanic_data', 'sc.fit_transform', 'y1_model.fit', 'plot_model_performance', 'pd.qcut', 'extract_surname', 'StandardScaler', 'RandomForestClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'StandardScaler', 'LogisticRegression', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.copy', 'imputer.fit_transform', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'DecisionTreeClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance', 'StandardScaler', 'DecisionTreeClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['df.dropna', 'df.drop', 'df.copy', 'pd.cut', 'pd.get_dummies', 'train_test_split', 'load_titanic_data', 'y1_model.fit', 'plot_model_performance', 'pd.qcut', 'label.fit_transform', 'BaggingClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['df.Name', 'df.fillna', 'pd.get_dummies', 'df.drop', 'train_test_split', 'load_titanic_data', 'y1_model.fit', 'plot_model_performance', 'pd.cut', 'pd.qcut', 'GradientBoostingClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['train.csv', '/test.csv'], 'operations': ['rtr.fit', 'fill_missing_fare', 'df.Deck', 'len', 'df.TicketNumber', 'fill_missing_age', 'df.drop', 'train_test_split', 'load_titanic_data', 'y1_model.fit', 'plot_model_performance', 'df.Age', 'RandomForestRegressor', 'pd.cut', 'std_scale.transform', 'RandomForestClassifier'], 'output_files': []}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'train_test_split', 'y1_train.dropna', 'y1_test.dropna', 'y2_test.dropna', 'load_adult_data', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'RandomForestClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'GradientBoostingClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', '/adult.test'], 'operations': ['pd.concat', 'df.dropna', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'pca.fit', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'StandardScaler', 'PCA', 'CatBoostClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'df.drop', 'y1_df.drop', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'XGBClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'XGBClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'train_test_split', 'load_adult_data', 'y1_data_orig_test.copy', 'sc.fit', 'trained.transform', 'pca.fit', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'pd.cut', 'StandardScaler', 'PCA', 'RandomForestClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'df.copy', 'df.replace', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'StandardScaler', 'DecisionTreeClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
-    <t>{'input_files': ['data/adult/adult.data', 'adult.test'], 'operations': ['pd.concat', 'df.dropna', 'pd.get_dummies', 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y2_model.fit', 'y1_model.fit', 'get_fair_metrics_and_plot', 'compute_new_metrics', 'StandardScaler', 'DecisionTreeClassifier', 'pd.DataFrame'], 'output_files': ['diff_file', 'a', 'diff_file', 'a']}</t>
-  </si>
-  <si>
     <t>input_files: df_molecules.csv,'operations': [metrics.roc_curve, LogisticRegression], 'output_files': []}</t>
   </si>
   <si>
@@ -201,9 +124,6 @@
     <t>10.5281/zenodo.7415772</t>
   </si>
   <si>
-    <t>{'input_files': ['hackathon.csv'], 'operations': ['x.sample', 'data.groupby', 'data.groupby', 'x.sample', 'pd.concat', 'px.scatter', 'fig.layout', 'fig.write_image', 'fig.show', 'pd.concat', 'pd.DataFrame', 'pca.fit_transform', 'get_ipython', 'get_ipython', 'fit.fit_transform', 'plt.figure', 'px.scatter_3d', 'calc_metrics', 'str', 'str', 'str', 'str', 'str', 'calc_metrics', 'str', 'str', 'str', 'str', 'plt.plot', 'np.cumsum', 'plt.xlabel', 'plt.ylabel', 'draw_umap', 'pd.DataFrame', 'np.load', 'U.fit_transform', 'PCA', 'umap.UMAP'], 'output_files': []}</t>
-  </si>
-  <si>
     <t>{'input_files': ['hackathon.csv'], 'operations': [PCA]}</t>
   </si>
   <si>
@@ -259,12 +179,93 @@
   </si>
   <si>
     <t>{'input_files': ['adult.data', 'adult.test'], 'operations': [train_test_split, load_adult_data, model.fit, XGBClassifier], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance', 'DecisionTreeClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data',  'sc.fit', 'trained.transform', 'pca.fit', 'y1_model.fit', 'plot_model_performance', 'plot_model_performance',  'PCA', 'RandomForestClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': [ 'train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'y1_model.fit',  'plot_model_performance', 'DecisionTreeClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['/train.csv', 'test.csv'], 'operations': ['train_test_split', 'load_titanic_data', 'y1_xgb.fit', 'plot_model_performance', 'label.fit_transform', 'XGBClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': [ 'train_test_split', 'load_titanic_data', 'plot_model_performance', 'RandomForestClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['train_test_split', 'load_titanic_data', 'plot_model_performance', 'BaggingClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['train_test_split', 'load_titanic_data', 'y1_model.fit', 'LogisticRegression'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['train_test_split', 'load_titanic_data', 'GradientBoostingClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': [ 'train_test_split', 'load_titanic_data', 'xgb.XGBClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', '/test.csv'], 'operations': [ 'train_test_split', 'load_titanic_data', 'sc.fit_transform', 'RandomForestClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['train.csv', 'test.csv'], 'operations': ['rtr.fit', 'train_test_split', 'load_titanic_data', 'y1_model.fit','RandomForestRegressor','RandomForestClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['tissue_positions_list.csv'], 'operations': [ 'adata.obsm', 'nx.clustering', 'ad.AnnData',  'AgglomerativeClustering', 'model.fit'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['Sample.csv', 'Reference.csv'], 'operations': [ 'svr.fit', 'range', 'LinearSVR'], 'output_files': ['score.csv']}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform', 'model.fit', 'LogisticRegression'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['imputer.fit_transform','train_test_split', 'load_adult_data','DecisionTreeClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split','load_adult_data',  'RandomForestClassifier', 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'GradientBoostingClassifier',], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'sc.fit',  'pca.fit', 'PCA', 'CatBoostClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data','XGBClassifier',], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'XGBClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'trained.transform', 'PCA', 'RandomForestClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': ['train_test_split', 'load_adult_data', 'sc.fit', 'trained.transform','DecisionTreeClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['adult.data', 'adult.test'], 'operations': [ 'load_adult_data', 'sc.fit', 'trained.transform', 'DecisionTreeClassifier'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['fmri_behavioural_new.csv'], 'operations': ['x.std', 'x.mean', 'stats.pearsonr', 'stats.ttest_1samp',], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['84-Site_12-BP-Solar.csv'], 'operations': ['rdtools.energy_from_power', 'rdtools.normalize_with_pvwatts', 'rdtools.irradiance_rescale',  'rdtools.normalized_filter', 'rdtools.poa_filter', 'rdtools.tcell_filter', 'rdtools.csi_filter',], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['metadata_AllInchikeys.csv'], 'operations': ['K.mean', 'predict_generator.batch_size', 'encoder.predict', 'cosine_similarity_matrix', 'encoder.predict', 'DataGeneratorAllInchikey'], 'output_files': []}</t>
+  </si>
+  <si>
+    <t>{'input_files': ['hackathon.csv'], 'operations': ['U.fit_transform', 'PCA', 'umap.UMAP'], 'output_files': []}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,20 +1065,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1088,433 +1089,433 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C40" t="s">
         <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
